--- a/data/road_station_list/data.xlsx
+++ b/data/road_station_list/data.xlsx
@@ -596,7 +596,7 @@
         <v>17:00</v>
       </c>
       <c r="L4" t="str">
-        <v>定休日：第1、第3火曜日（祝日の場合は翌平日）12/31は9：00から15：00</v>
+        <v>定休日：第1、第3火曜日（祝日の場合は翌平日）</v>
       </c>
       <c r="M4" t="str">
         <v>無料</v>
@@ -608,7 +608,7 @@
         <v>国道11号線にある道の駅。地元の特産品等の物販施設や食事処のほかにお遍路さんのための休憩施設、駐車場、トイレ、情報ステーションも併設。</v>
       </c>
       <c r="P4" t="str">
-        <v>琴電房前駅より徒歩10分。高松東ICから車で15分。</v>
+        <v>琴電房前駅より徒歩10分。志度ICから10分。</v>
       </c>
       <c r="Q4" t="str">
         <v>大型13台、普通車47台、身障者用2台</v>

--- a/data/road_station_list/data.xlsx
+++ b/data/road_station_list/data.xlsx
@@ -596,7 +596,7 @@
         <v>17:00</v>
       </c>
       <c r="L4" t="str">
-        <v>定休日：第1、第3火曜日（祝日の場合は翌平日）</v>
+        <v>定休日：第1、第3水曜日（祝日の場合は翌平日）</v>
       </c>
       <c r="M4" t="str">
         <v>無料</v>

--- a/data/road_station_list/data.xlsx
+++ b/data/road_station_list/data.xlsx
@@ -546,7 +546,7 @@
         <v>定休日：第３水曜日（祝日の場合は翌日）</v>
       </c>
       <c r="M3" t="str">
-        <v>大人　670円小人（小学生）310円高齢者（65歳以上）510円</v>
+        <v>大人　700円小人（小学生）310円高齢者（65歳以上）510円</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -558,7 +558,7 @@
         <v>JR高松駅からバスで約４５分。</v>
       </c>
       <c r="Q3" t="str">
-        <v>駐車スペース１０１台</v>
+        <v>駐車スペース64台</v>
       </c>
     </row>
     <row r="4">
